--- a/excel_data/2019_data/Win19_wk2_V.xlsx
+++ b/excel_data/2019_data/Win19_wk2_V.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguil\Documents\UCSD_old_laptop\Fall_2019\ECE 143\Project\ECE143_FinalProject\excel_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguil\Documents\UCSD_old_laptop\Fall_2019\ECE 143\Project\ECE143_FinalProject\excel_data\2019_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE01C48-FE4F-468F-8072-00FFE5151FA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D707AB93-3C0B-4753-9169-6FC5F4C510BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{04F38988-90E7-4E6D-B949-98D9A13ADD1E}"/>
   </bookViews>
@@ -339,64 +339,64 @@
     <t>Hopkins</t>
   </si>
   <si>
-    <t>Mon08</t>
-  </si>
-  <si>
-    <t>Mon010</t>
-  </si>
-  <si>
-    <t>Mon012</t>
-  </si>
-  <si>
-    <t>Mon02</t>
-  </si>
-  <si>
-    <t>Tue08</t>
-  </si>
-  <si>
-    <t>Tue010</t>
-  </si>
-  <si>
-    <t>Tue012</t>
-  </si>
-  <si>
-    <t>Tue02</t>
-  </si>
-  <si>
-    <t>Wed08</t>
-  </si>
-  <si>
-    <t>Wed010</t>
-  </si>
-  <si>
-    <t>Wed012</t>
-  </si>
-  <si>
-    <t>Wed02</t>
-  </si>
-  <si>
-    <t>Thu08</t>
-  </si>
-  <si>
-    <t>Thu010</t>
-  </si>
-  <si>
-    <t>Thu012</t>
-  </si>
-  <si>
-    <t>Thu02</t>
-  </si>
-  <si>
-    <t>Fri08</t>
-  </si>
-  <si>
-    <t>Fri010</t>
-  </si>
-  <si>
-    <t>Fri012</t>
-  </si>
-  <si>
-    <t>Fri02</t>
+    <t>Mon-8</t>
+  </si>
+  <si>
+    <t>Mon-10</t>
+  </si>
+  <si>
+    <t>Mon-12</t>
+  </si>
+  <si>
+    <t>Mon-2</t>
+  </si>
+  <si>
+    <t>Tue-8</t>
+  </si>
+  <si>
+    <t>Tue-10</t>
+  </si>
+  <si>
+    <t>Tue-12</t>
+  </si>
+  <si>
+    <t>Tue-2</t>
+  </si>
+  <si>
+    <t>Wed-8</t>
+  </si>
+  <si>
+    <t>Wed-10</t>
+  </si>
+  <si>
+    <t>Wed-12</t>
+  </si>
+  <si>
+    <t>Wed-2</t>
+  </si>
+  <si>
+    <t>Thu-8</t>
+  </si>
+  <si>
+    <t>Thu-10</t>
+  </si>
+  <si>
+    <t>Thu-12</t>
+  </si>
+  <si>
+    <t>Thu-2</t>
+  </si>
+  <si>
+    <t>Fri-8</t>
+  </si>
+  <si>
+    <t>Fri-10</t>
+  </si>
+  <si>
+    <t>Fri-12</t>
+  </si>
+  <si>
+    <t>Fri-2</t>
   </si>
 </sst>
 </file>
@@ -1049,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9C5DFF-1CC3-4434-B9F9-2907CC986887}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/excel_data/2019_data/Win19_wk2_V.xlsx
+++ b/excel_data/2019_data/Win19_wk2_V.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguil\Documents\UCSD_old_laptop\Fall_2019\ECE 143\Project\ECE143_FinalProject\excel_data\2019_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iaman\Desktop\Projects\Project 2019.9\ECE143\Project\ECE143_FinalProject\excel_data\2019_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D707AB93-3C0B-4753-9169-6FC5F4C510BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D43E4E6-6A52-4AD5-BC2A-572CEE3FA5C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{04F38988-90E7-4E6D-B949-98D9A13ADD1E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{04F38988-90E7-4E6D-B949-98D9A13ADD1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,11 +403,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -420,6 +420,8 @@
     <font>
       <sz val="7"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="7"/>
@@ -429,11 +431,14 @@
     <font>
       <sz val="7"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="7"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -735,7 +740,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -751,7 +756,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1049,13 +1054,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9C5DFF-1CC3-4434-B9F9-2907CC986887}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:W1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +1131,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -1195,7 +1200,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="14.4" customHeight="1">
+    <row r="3" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
@@ -1264,7 +1269,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>5</v>
       </c>
@@ -1333,7 +1338,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
         <v>30</v>
       </c>
@@ -1402,7 +1407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
@@ -1471,7 +1476,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="14.4" customHeight="1">
+    <row r="7" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>7</v>
       </c>
@@ -1542,7 +1547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="33" t="s">
         <v>9</v>
@@ -1611,7 +1616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>10</v>
       </c>
@@ -1682,7 +1687,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="33" t="s">
         <v>12</v>
@@ -1751,7 +1756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="30" t="s">
         <v>13</v>
@@ -1820,7 +1825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="33" t="s">
         <v>14</v>
@@ -1889,7 +1894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
       <c r="B13" s="30" t="s">
         <v>15</v>
@@ -1958,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="33" t="s">
         <v>16</v>
@@ -2027,7 +2032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="B15" s="30" t="s">
         <v>17</v>
@@ -2096,7 +2101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="33" t="s">
         <v>18</v>
@@ -2165,7 +2170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
       <c r="B17" s="30" t="s">
         <v>19</v>
@@ -2234,7 +2239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="33" t="s">
         <v>20</v>
@@ -2303,7 +2308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="30" t="s">
         <v>21</v>
@@ -2372,7 +2377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="33" t="s">
         <v>22</v>
@@ -2441,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="30" t="s">
         <v>23</v>
@@ -2510,7 +2515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="33" t="s">
         <v>24</v>
@@ -2579,7 +2584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="30" t="s">
         <v>25</v>
@@ -2648,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="33" t="s">
         <v>26</v>
@@ -2717,7 +2722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="30" t="s">
         <v>27</v>
@@ -2786,7 +2791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="33" t="s">
         <v>28</v>
@@ -2855,7 +2860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="34"/>
       <c r="B27" s="35" t="s">
         <v>29</v>
@@ -2925,6 +2930,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>